--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544549.459316224</v>
+        <v>-2546997.692395278</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>104.2649739777187</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>200.6627599969416</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.8939792152981</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>9.461970681989259</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660807</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672732</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872593</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.71396007345139</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>369.7983081316357</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.66075074687579</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247653</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094886</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.3165365479897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417134</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>123.9468996330551</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>74.75769145492403</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>17.25588147840239</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U25" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433982</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
@@ -2731,7 +2731,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124662</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2965,10 +2965,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572804</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,22 +4135,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
         <v>49.37728379124554</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>528.2236542938253</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>159.2611373534136</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>159.2611373534136</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1678.428584594839</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1304.962826333759</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>914.8234943579471</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.538454714624</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.538454714624</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776634</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776634</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5045,46 +5045,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1088.893283004707</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.425187676632</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903278</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2638710736755</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5236,13 +5236,13 @@
         <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.2638710736755</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143016</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544772</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5285,43 +5285,43 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>1622.425187676632</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903278</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839444</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839444</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839444</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998319</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5510,40 +5510,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676632</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903278</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0738540998329</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C19" t="n">
-        <v>171.0738540998329</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5701,22 +5701,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5729,37 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L20" t="n">
         <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676631</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N20" t="n">
         <v>2602.177459903277</v>
@@ -5780,16 +5780,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468568</v>
@@ -5829,19 +5829,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,13 +5868,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5911,16 +5911,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1938.913282793187</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1747.227398620013</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1525.460783189539</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1236.357916315183</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>981.6734281092956</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,40 +5993,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004707</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.425187676631</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C25" t="n">
-        <v>667.0286178416718</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E25" t="n">
         <v>463.8981507430896</v>
@@ -6166,16 +6166,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q25" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R25" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S25" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T25" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U25" t="n">
         <v>1725.799256195774</v>
@@ -6190,7 +6190,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6233,22 +6233,22 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.42518767663</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903276</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6370,16 +6370,16 @@
         <v>463.8981507430905</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160457</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819769</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D31" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195773</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849072</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="32">
@@ -6704,7 +6704,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1088.893283004706</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
         <v>1622.425187676631</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6880,7 +6880,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
@@ -6889,19 +6889,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6941,22 +6941,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>1622.425187676631</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,70 +6990,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282341</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
         <v>364.4578361932524</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7117,13 +7117,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
         <v>1725.799256195773</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7181,19 +7181,19 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160451</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829557</v>
@@ -7363,19 +7363,19 @@
         <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7418,43 +7418,43 @@
         <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>1622.42518767663</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7552,25 +7552,25 @@
         <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7591,13 +7591,13 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
         <v>1725.799256195774</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,19 +7825,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719086</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>19.79750571619451</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>19.79750571619468</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>19.79750571619286</v>
       </c>
       <c r="M17" t="n">
-        <v>19.79750571619365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571619297</v>
+        <v>19.79750571619218</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>19.79750571619354</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>19.79750571619206</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>19.79750571619206</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>104.3976710547479</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>19.79750571619297</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10352,10 +10352,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>19.79750571619286</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>248.8012738805282</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>85.51392558917667</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>19.79750571619206</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>285.662307168233</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619297</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>277.6653960945431</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>31.14296704555476</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>85.14112624278619</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>242.6756726418387</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.3211098256421</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.26811680410511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>162.5760987035359</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>34.14081246905677</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>91.2681168041042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>71.67627119164493</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-9.541256801314353e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1407141.832493952</v>
+        <v>1407141.832493951</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1407141.832493952</v>
+        <v>1407141.832493951</v>
       </c>
     </row>
     <row r="9">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106987.6929218025</v>
+        <v>106987.6929218026</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918986</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="I4" t="n">
+        <v>33605.65329740897</v>
+      </c>
+      <c r="J4" t="n">
         <v>33605.65329740901</v>
       </c>
-      <c r="J4" t="n">
-        <v>33605.65329740899</v>
-      </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740901</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740902</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-779814.6501997564</v>
+        <v>-780149.1167326206</v>
       </c>
       <c r="C6" t="n">
-        <v>-266207.7649205374</v>
+        <v>-266207.7649205375</v>
       </c>
       <c r="D6" t="n">
-        <v>-266207.7649205374</v>
+        <v>-266207.7649205375</v>
       </c>
       <c r="E6" t="n">
-        <v>-841909.4245663101</v>
+        <v>-841976.620056536</v>
       </c>
       <c r="F6" t="n">
-        <v>-114532.0105729035</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="G6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631294</v>
       </c>
       <c r="H6" t="n">
-        <v>-114532.0105729036</v>
+        <v>-114599.2060631293</v>
       </c>
       <c r="I6" t="n">
-        <v>-171518.4336063852</v>
+        <v>-171518.4336063851</v>
       </c>
       <c r="J6" t="n">
-        <v>-310361.543504104</v>
+        <v>-310361.5435041041</v>
       </c>
       <c r="K6" t="n">
         <v>-133938.3243115111</v>
@@ -26555,10 +26555,10 @@
         <v>-263580.6391504559</v>
       </c>
       <c r="N6" t="n">
-        <v>-171518.4336063852</v>
+        <v>-171518.4336063851</v>
       </c>
       <c r="O6" t="n">
-        <v>-133938.324311511</v>
+        <v>-133938.3243115112</v>
       </c>
       <c r="P6" t="n">
         <v>-133938.3243115111</v>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>382.6412029752402</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>148.5782087204714</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513323</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470452</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233689</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.5270086439616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16.43963052441785</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.77321189969338</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624598</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>475.3876201085264</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248955</v>
@@ -35653,7 +35653,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>558.7186215464212</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248955</v>
@@ -35887,10 +35887,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>475.387620108525</v>
       </c>
       <c r="M17" t="n">
-        <v>558.7186215464204</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464197</v>
+        <v>558.7186215464191</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>475.3876201085255</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>558.7186215464188</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>558.7186215464188</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
@@ -36610,10 +36610,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>355.1919758584674</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>558.7186215464197</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,10 +37072,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>475.387620108525</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>558.7186215464197</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>801.1031092934395</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>624.4350414194032</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>558.7186215464188</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>837.9641425811443</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464197</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
